--- a/Code/Results/Cases/Case_2_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002071652674926</v>
+        <v>1.032457870620217</v>
       </c>
       <c r="D2">
-        <v>1.023656644900544</v>
+        <v>1.041018084730279</v>
       </c>
       <c r="E2">
-        <v>1.023668370131769</v>
+        <v>1.050467848892552</v>
       </c>
       <c r="F2">
-        <v>1.031417832894042</v>
+        <v>1.055279202385765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045635920366812</v>
+        <v>1.03580434566463</v>
       </c>
       <c r="J2">
-        <v>1.024190577032537</v>
+        <v>1.03758798229482</v>
       </c>
       <c r="K2">
-        <v>1.034795956775248</v>
+        <v>1.043798789197469</v>
       </c>
       <c r="L2">
-        <v>1.034807527987777</v>
+        <v>1.053222043623242</v>
       </c>
       <c r="M2">
-        <v>1.042456154659688</v>
+        <v>1.058020097333649</v>
       </c>
       <c r="N2">
-        <v>1.025645045128225</v>
+        <v>1.039061476242684</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006336896826061</v>
+        <v>1.033368681826004</v>
       </c>
       <c r="D3">
-        <v>1.026745599974362</v>
+        <v>1.041700024947126</v>
       </c>
       <c r="E3">
-        <v>1.027420411136198</v>
+        <v>1.051344080027163</v>
       </c>
       <c r="F3">
-        <v>1.035109557726477</v>
+        <v>1.056123803695223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046565153783059</v>
+        <v>1.035944968108676</v>
       </c>
       <c r="J3">
-        <v>1.026656289775536</v>
+        <v>1.038141293066593</v>
       </c>
       <c r="K3">
-        <v>1.037047331185756</v>
+        <v>1.044291609357001</v>
       </c>
       <c r="L3">
-        <v>1.037714063857499</v>
+        <v>1.053910562723084</v>
       </c>
       <c r="M3">
-        <v>1.045312080723735</v>
+        <v>1.058678028897196</v>
       </c>
       <c r="N3">
-        <v>1.028114259466139</v>
+        <v>1.039615572779218</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009043775946869</v>
+        <v>1.033958616341583</v>
       </c>
       <c r="D4">
-        <v>1.028708753261931</v>
+        <v>1.042141658999556</v>
       </c>
       <c r="E4">
-        <v>1.029810672494994</v>
+        <v>1.051912287537551</v>
       </c>
       <c r="F4">
-        <v>1.037458666922723</v>
+        <v>1.056671193991466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047145019348567</v>
+        <v>1.036034794726805</v>
       </c>
       <c r="J4">
-        <v>1.02821893645064</v>
+        <v>1.038499274299852</v>
       </c>
       <c r="K4">
-        <v>1.038472609085106</v>
+        <v>1.044610190651168</v>
       </c>
       <c r="L4">
-        <v>1.039562144606872</v>
+        <v>1.054356666700077</v>
       </c>
       <c r="M4">
-        <v>1.047125079533035</v>
+        <v>1.059103983300465</v>
       </c>
       <c r="N4">
-        <v>1.029679125278761</v>
+        <v>1.039974062386889</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010169478723157</v>
+        <v>1.034206762094523</v>
       </c>
       <c r="D5">
-        <v>1.029525779203495</v>
+        <v>1.042327409653594</v>
       </c>
       <c r="E5">
-        <v>1.030806834231381</v>
+        <v>1.052151454063709</v>
       </c>
       <c r="F5">
-        <v>1.03843702267688</v>
+        <v>1.056901525016691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047383760324044</v>
+        <v>1.036072278196268</v>
       </c>
       <c r="J5">
-        <v>1.028868233735042</v>
+        <v>1.038649757016874</v>
       </c>
       <c r="K5">
-        <v>1.039064445467865</v>
+        <v>1.044744047688809</v>
       </c>
       <c r="L5">
-        <v>1.040331492508272</v>
+        <v>1.054544347661428</v>
       </c>
       <c r="M5">
-        <v>1.047879124310762</v>
+        <v>1.059283107818413</v>
       </c>
       <c r="N5">
-        <v>1.030329344639782</v>
+        <v>1.04012475880663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010357781654424</v>
+        <v>1.034248434871711</v>
       </c>
       <c r="D6">
-        <v>1.029662482498307</v>
+        <v>1.042358603101004</v>
       </c>
       <c r="E6">
-        <v>1.030973591899759</v>
+        <v>1.052191628253281</v>
       </c>
       <c r="F6">
-        <v>1.038600761066892</v>
+        <v>1.056940210763981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047423553330105</v>
+        <v>1.036078555419564</v>
       </c>
       <c r="J6">
-        <v>1.028976811874495</v>
+        <v>1.038675022955561</v>
       </c>
       <c r="K6">
-        <v>1.039163391832444</v>
+        <v>1.044766518468318</v>
       </c>
       <c r="L6">
-        <v>1.040460231091064</v>
+        <v>1.054575868220461</v>
       </c>
       <c r="M6">
-        <v>1.04800526101686</v>
+        <v>1.059313186695451</v>
       </c>
       <c r="N6">
-        <v>1.030438076972647</v>
+        <v>1.040150060625848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009058865304751</v>
+        <v>1.033961931539439</v>
       </c>
       <c r="D7">
-        <v>1.028719702639851</v>
+        <v>1.042144140666342</v>
       </c>
       <c r="E7">
-        <v>1.02982401708505</v>
+        <v>1.051915482146863</v>
       </c>
       <c r="F7">
-        <v>1.037471775571626</v>
+        <v>1.056674270870237</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047148229081096</v>
+        <v>1.036035296682324</v>
       </c>
       <c r="J7">
-        <v>1.028227642124013</v>
+        <v>1.038501285108196</v>
       </c>
       <c r="K7">
-        <v>1.038480545863374</v>
+        <v>1.044611979549859</v>
       </c>
       <c r="L7">
-        <v>1.039572454178675</v>
+        <v>1.054359173958517</v>
       </c>
       <c r="M7">
-        <v>1.047135186798063</v>
+        <v>1.059106376563494</v>
       </c>
       <c r="N7">
-        <v>1.029687843315188</v>
+        <v>1.039976076050812</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003524351287646</v>
+        <v>1.032765562928059</v>
       </c>
       <c r="D8">
-        <v>1.0247080927873</v>
+        <v>1.041248471380206</v>
       </c>
       <c r="E8">
-        <v>1.024944344220441</v>
+        <v>1.050763720120359</v>
       </c>
       <c r="F8">
-        <v>1.032673864335568</v>
+        <v>1.055564456755162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045954448692464</v>
+        <v>1.035852110632947</v>
       </c>
       <c r="J8">
-        <v>1.025030811234839</v>
+        <v>1.037774985478631</v>
       </c>
       <c r="K8">
-        <v>1.035563463422171</v>
+        <v>1.043965402772963</v>
       </c>
       <c r="L8">
-        <v>1.035796705497492</v>
+        <v>1.053454609647551</v>
       </c>
       <c r="M8">
-        <v>1.043428714211682</v>
+        <v>1.058242400156061</v>
       </c>
       <c r="N8">
-        <v>1.026486472559469</v>
+        <v>1.039248744992465</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9933456982870149</v>
+        <v>1.030661897570593</v>
       </c>
       <c r="D9">
-        <v>1.017355050409118</v>
+        <v>1.039673117415286</v>
       </c>
       <c r="E9">
-        <v>1.01604451431402</v>
+        <v>1.048743645768536</v>
       </c>
       <c r="F9">
-        <v>1.023901699381387</v>
+        <v>1.053615615166834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043682547424145</v>
+        <v>1.035520414288817</v>
       </c>
       <c r="J9">
-        <v>1.019135645380487</v>
+        <v>1.036494836831787</v>
       </c>
       <c r="K9">
-        <v>1.030172692355567</v>
+        <v>1.042823759385441</v>
       </c>
       <c r="L9">
-        <v>1.028882535426748</v>
+        <v>1.051865204954897</v>
       </c>
       <c r="M9">
-        <v>1.036618535651072</v>
+        <v>1.056721779414803</v>
       </c>
       <c r="N9">
-        <v>1.020582934893419</v>
+        <v>1.037966778387707</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9862436890897293</v>
+        <v>1.029262547370349</v>
       </c>
       <c r="D10">
-        <v>1.012245259153644</v>
+        <v>1.038624948155136</v>
       </c>
       <c r="E10">
-        <v>1.009888812463696</v>
+        <v>1.047403405722586</v>
       </c>
       <c r="F10">
-        <v>1.017819836510877</v>
+        <v>1.052321058958289</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042048367704216</v>
+        <v>1.035293336788262</v>
       </c>
       <c r="J10">
-        <v>1.015013930304897</v>
+        <v>1.035641259690165</v>
       </c>
       <c r="K10">
-        <v>1.026396886252773</v>
+        <v>1.042061194240933</v>
       </c>
       <c r="L10">
-        <v>1.024081787637718</v>
+        <v>1.050808749989494</v>
       </c>
       <c r="M10">
-        <v>1.03187463340518</v>
+        <v>1.0557093401832</v>
       </c>
       <c r="N10">
-        <v>1.016455366509655</v>
+        <v>1.037111989068638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9830862764429114</v>
+        <v>1.028657362598425</v>
       </c>
       <c r="D11">
-        <v>1.009979372192026</v>
+        <v>1.038171589881636</v>
       </c>
       <c r="E11">
-        <v>1.007165794737381</v>
+        <v>1.046824624965578</v>
       </c>
       <c r="F11">
-        <v>1.015126054351539</v>
+        <v>1.051761631834001</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041310842543982</v>
+        <v>1.035193606950234</v>
       </c>
       <c r="J11">
-        <v>1.013180015959495</v>
+        <v>1.035271631200706</v>
       </c>
       <c r="K11">
-        <v>1.024715514494349</v>
+        <v>1.041730661616871</v>
       </c>
       <c r="L11">
-        <v>1.021953828184987</v>
+        <v>1.050352058300362</v>
       </c>
       <c r="M11">
-        <v>1.029768243945213</v>
+        <v>1.055271271303099</v>
       </c>
       <c r="N11">
-        <v>1.01461884779553</v>
+        <v>1.036741835664327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.981900468423422</v>
+        <v>1.028432682895183</v>
       </c>
       <c r="D12">
-        <v>1.009129345395175</v>
+        <v>1.038003270082852</v>
       </c>
       <c r="E12">
-        <v>1.006145264322653</v>
+        <v>1.046609874967013</v>
       </c>
       <c r="F12">
-        <v>1.014115965709396</v>
+        <v>1.051554006368268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041032257053946</v>
+        <v>1.035156352543513</v>
       </c>
       <c r="J12">
-        <v>1.012491088992959</v>
+        <v>1.035134332246225</v>
       </c>
       <c r="K12">
-        <v>1.024083706982295</v>
+        <v>1.041607837668028</v>
       </c>
       <c r="L12">
-        <v>1.021155670247687</v>
+        <v>1.050182538365838</v>
       </c>
       <c r="M12">
-        <v>1.028977632512891</v>
+        <v>1.055108603153603</v>
       </c>
       <c r="N12">
-        <v>1.013928942473681</v>
+        <v>1.036604341729582</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9821554277453306</v>
+        <v>1.028480872327043</v>
       </c>
       <c r="D13">
-        <v>1.009312064158039</v>
+        <v>1.03803937171095</v>
       </c>
       <c r="E13">
-        <v>1.00636458970544</v>
+        <v>1.046655928910516</v>
       </c>
       <c r="F13">
-        <v>1.014333070305746</v>
+        <v>1.05159853498357</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04109222673882</v>
+        <v>1.035164353247321</v>
       </c>
       <c r="J13">
-        <v>1.012639221644561</v>
+        <v>1.035163783432026</v>
       </c>
       <c r="K13">
-        <v>1.024219565844679</v>
+        <v>1.041634186038903</v>
       </c>
       <c r="L13">
-        <v>1.021327233842106</v>
+        <v>1.050218895708295</v>
       </c>
       <c r="M13">
-        <v>1.029147598563657</v>
+        <v>1.055143493731548</v>
       </c>
       <c r="N13">
-        <v>1.014077285490639</v>
+        <v>1.036633834739444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9829885264100018</v>
+        <v>1.028638788194515</v>
       </c>
       <c r="D14">
-        <v>1.009909281763306</v>
+        <v>1.038157674921056</v>
       </c>
       <c r="E14">
-        <v>1.007081625206731</v>
+        <v>1.046806868860663</v>
       </c>
       <c r="F14">
-        <v>1.015042756500072</v>
+        <v>1.051744465956246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041287909999476</v>
+        <v>1.035190531776036</v>
       </c>
       <c r="J14">
-        <v>1.013123228764908</v>
+        <v>1.035260282070304</v>
       </c>
       <c r="K14">
-        <v>1.024663439199559</v>
+        <v>1.041720509952074</v>
       </c>
       <c r="L14">
-        <v>1.02188801215396</v>
+        <v>1.050338043361092</v>
       </c>
       <c r="M14">
-        <v>1.029703061257862</v>
+        <v>1.055257824071869</v>
       </c>
       <c r="N14">
-        <v>1.014561979956612</v>
+        <v>1.036730470416858</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9835000824533665</v>
+        <v>1.028736100365026</v>
       </c>
       <c r="D15">
-        <v>1.010276126088773</v>
+        <v>1.038230575771649</v>
       </c>
       <c r="E15">
-        <v>1.00752219781903</v>
+        <v>1.046899899131023</v>
       </c>
       <c r="F15">
-        <v>1.015478745418987</v>
+        <v>1.051834401514105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041407858241176</v>
+        <v>1.035206633382115</v>
       </c>
       <c r="J15">
-        <v>1.013420406749107</v>
+        <v>1.035319737771752</v>
       </c>
       <c r="K15">
-        <v>1.024935951532513</v>
+        <v>1.041773690451853</v>
       </c>
       <c r="L15">
-        <v>1.022232489956625</v>
+        <v>1.050411469536752</v>
       </c>
       <c r="M15">
-        <v>1.030044201984985</v>
+        <v>1.055328273455375</v>
       </c>
       <c r="N15">
-        <v>1.014859579967637</v>
+        <v>1.036790010552222</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9864514494294619</v>
+        <v>1.0293027272512</v>
       </c>
       <c r="D16">
-        <v>1.012394484641759</v>
+        <v>1.038655046850021</v>
       </c>
       <c r="E16">
-        <v>1.010068281128125</v>
+        <v>1.047441850345786</v>
       </c>
       <c r="F16">
-        <v>1.01799730670994</v>
+        <v>1.052358210131966</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042096672681788</v>
+        <v>1.035299926004098</v>
       </c>
       <c r="J16">
-        <v>1.015134576358897</v>
+        <v>1.035665790306819</v>
       </c>
       <c r="K16">
-        <v>1.026507470381633</v>
+        <v>1.042083123607078</v>
       </c>
       <c r="L16">
-        <v>1.024221947506327</v>
+        <v>1.050839075256496</v>
       </c>
       <c r="M16">
-        <v>1.032013296923755</v>
+        <v>1.055738420322872</v>
       </c>
       <c r="N16">
-        <v>1.01657618389489</v>
+        <v>1.037136554521582</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9882803084554168</v>
+        <v>1.029658357138572</v>
       </c>
       <c r="D17">
-        <v>1.013708750173609</v>
+        <v>1.038921442953308</v>
       </c>
       <c r="E17">
-        <v>1.011649664323145</v>
+        <v>1.047782218795926</v>
       </c>
       <c r="F17">
-        <v>1.019560688976941</v>
+        <v>1.052687083683927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042520641711127</v>
+        <v>1.035358070590523</v>
       </c>
       <c r="J17">
-        <v>1.016196428184341</v>
+        <v>1.035882854298735</v>
       </c>
       <c r="K17">
-        <v>1.027480610257147</v>
+        <v>1.042277133502203</v>
       </c>
       <c r="L17">
-        <v>1.025456470078867</v>
+        <v>1.05110750561347</v>
       </c>
       <c r="M17">
-        <v>1.0332342259765</v>
+        <v>1.055995782389703</v>
       </c>
       <c r="N17">
-        <v>1.017639543671722</v>
+        <v>1.037353926769263</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.989339166759733</v>
+        <v>1.029865861650989</v>
       </c>
       <c r="D18">
-        <v>1.014470220883284</v>
+        <v>1.039076875998653</v>
       </c>
       <c r="E18">
-        <v>1.012566535417495</v>
+        <v>1.047980899583678</v>
       </c>
       <c r="F18">
-        <v>1.020466796807123</v>
+        <v>1.052879018418458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04276505937372</v>
+        <v>1.035391849859291</v>
       </c>
       <c r="J18">
-        <v>1.016811066882945</v>
+        <v>1.036009461666161</v>
       </c>
       <c r="K18">
-        <v>1.02804376815208</v>
+        <v>1.042390263606844</v>
       </c>
       <c r="L18">
-        <v>1.026171823229687</v>
+        <v>1.051264149756879</v>
       </c>
       <c r="M18">
-        <v>1.033941357101669</v>
+        <v>1.056145928491151</v>
       </c>
       <c r="N18">
-        <v>1.018255055227778</v>
+        <v>1.037480713933673</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9896988919805513</v>
+        <v>1.029936627437437</v>
       </c>
       <c r="D19">
-        <v>1.014729005333359</v>
+        <v>1.039129882861752</v>
       </c>
       <c r="E19">
-        <v>1.012878240701959</v>
+        <v>1.048048669923816</v>
       </c>
       <c r="F19">
-        <v>1.020774787562184</v>
+        <v>1.052944481528074</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042847915759924</v>
+        <v>1.035403344718269</v>
       </c>
       <c r="J19">
-        <v>1.017019851921855</v>
+        <v>1.03605263106766</v>
       </c>
       <c r="K19">
-        <v>1.028235042971103</v>
+        <v>1.042428832485601</v>
       </c>
       <c r="L19">
-        <v>1.026414949256683</v>
+        <v>1.051317573742818</v>
       </c>
       <c r="M19">
-        <v>1.034181630139929</v>
+        <v>1.056197129672782</v>
       </c>
       <c r="N19">
-        <v>1.018464136765392</v>
+        <v>1.037523944640674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9880849092921701</v>
+        <v>1.029620194000876</v>
       </c>
       <c r="D20">
-        <v>1.013568273885604</v>
+        <v>1.038892856122911</v>
       </c>
       <c r="E20">
-        <v>1.011480571186003</v>
+        <v>1.047745684992795</v>
       </c>
       <c r="F20">
-        <v>1.019393554480929</v>
+        <v>1.052651787443704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04247545234999</v>
+        <v>1.035351846236183</v>
       </c>
       <c r="J20">
-        <v>1.016082992289597</v>
+        <v>1.035859565625418</v>
       </c>
       <c r="K20">
-        <v>1.027376664768792</v>
+        <v>1.042256321438292</v>
       </c>
       <c r="L20">
-        <v>1.025324508449684</v>
+        <v>1.051078697988574</v>
       </c>
       <c r="M20">
-        <v>1.033103753182028</v>
+        <v>1.055968166641782</v>
       </c>
       <c r="N20">
-        <v>1.017525946684996</v>
+        <v>1.037330605023359</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9827435640835749</v>
+        <v>1.028592282781956</v>
       </c>
       <c r="D21">
-        <v>1.009733650318796</v>
+        <v>1.038122835417641</v>
       </c>
       <c r="E21">
-        <v>1.006870730393815</v>
+        <v>1.046762414307579</v>
       </c>
       <c r="F21">
-        <v>1.014834037458417</v>
+        <v>1.051701488196299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041230415309221</v>
+        <v>1.035182828652434</v>
       </c>
       <c r="J21">
-        <v>1.012980916945302</v>
+        <v>1.035231865685815</v>
       </c>
       <c r="K21">
-        <v>1.024532932756721</v>
+        <v>1.041695091065696</v>
       </c>
       <c r="L21">
-        <v>1.021723093444048</v>
+        <v>1.050302954141526</v>
       </c>
       <c r="M21">
-        <v>1.029539720786038</v>
+        <v>1.055224155240466</v>
       </c>
       <c r="N21">
-        <v>1.0144194660379</v>
+        <v>1.036702013677845</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9793096522675077</v>
+        <v>1.027946647823908</v>
       </c>
       <c r="D22">
-        <v>1.007274014475801</v>
+        <v>1.037639142906059</v>
       </c>
       <c r="E22">
-        <v>1.003919570576707</v>
+        <v>1.046145553196707</v>
       </c>
       <c r="F22">
-        <v>1.011912098230799</v>
+        <v>1.051104985701293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040420712991858</v>
+        <v>1.035075344129823</v>
       </c>
       <c r="J22">
-        <v>1.010985613808922</v>
+        <v>1.034837192053038</v>
       </c>
       <c r="K22">
-        <v>1.022702735978468</v>
+        <v>1.041341937946712</v>
       </c>
       <c r="L22">
-        <v>1.019413777858954</v>
+        <v>1.049815883287485</v>
       </c>
       <c r="M22">
-        <v>1.027251210929435</v>
+        <v>1.054756656547499</v>
       </c>
       <c r="N22">
-        <v>1.012421329342201</v>
+        <v>1.036306779563238</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9811374298793394</v>
+        <v>1.028288848764843</v>
       </c>
       <c r="D23">
-        <v>1.00858265407063</v>
+        <v>1.037895514250088</v>
       </c>
       <c r="E23">
-        <v>1.005489189648348</v>
+        <v>1.046472433420977</v>
       </c>
       <c r="F23">
-        <v>1.013466458641055</v>
+        <v>1.051421108684046</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040852550779619</v>
+        <v>1.035132438815198</v>
       </c>
       <c r="J23">
-        <v>1.012047737602411</v>
+        <v>1.035046416942946</v>
       </c>
       <c r="K23">
-        <v>1.023677064824697</v>
+        <v>1.041529177740895</v>
       </c>
       <c r="L23">
-        <v>1.020642373063112</v>
+        <v>1.050074024755214</v>
       </c>
       <c r="M23">
-        <v>1.028469035328745</v>
+        <v>1.055004458396743</v>
       </c>
       <c r="N23">
-        <v>1.013484961473304</v>
+        <v>1.036516301576488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9881732260802053</v>
+        <v>1.029637438058918</v>
       </c>
       <c r="D24">
-        <v>1.013631764863838</v>
+        <v>1.038905773130765</v>
       </c>
       <c r="E24">
-        <v>1.011556994132838</v>
+        <v>1.047762192583734</v>
       </c>
       <c r="F24">
-        <v>1.019469093216319</v>
+        <v>1.052667735960759</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042495880355498</v>
+        <v>1.035354659172676</v>
       </c>
       <c r="J24">
-        <v>1.016134263653953</v>
+        <v>1.035870088781935</v>
       </c>
       <c r="K24">
-        <v>1.027423647016292</v>
+        <v>1.042265725614943</v>
       </c>
       <c r="L24">
-        <v>1.025384150800285</v>
+        <v>1.051091714688074</v>
       </c>
       <c r="M24">
-        <v>1.033162723697602</v>
+        <v>1.055980644913443</v>
       </c>
       <c r="N24">
-        <v>1.01757729086057</v>
+        <v>1.037341143123965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9960305730348119</v>
+        <v>1.031205205786848</v>
       </c>
       <c r="D25">
-        <v>1.01929131985065</v>
+        <v>1.04008002699369</v>
       </c>
       <c r="E25">
-        <v>1.018383017070605</v>
+        <v>1.049264749557733</v>
       </c>
       <c r="F25">
-        <v>1.026209164819689</v>
+        <v>1.054118621696349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044290470559887</v>
+        <v>1.035607216563466</v>
       </c>
       <c r="J25">
-        <v>1.020692266672821</v>
+        <v>1.036825816407192</v>
       </c>
       <c r="K25">
-        <v>1.031597366202363</v>
+        <v>1.043119165842108</v>
       </c>
       <c r="L25">
-        <v>1.030702508761852</v>
+        <v>1.052275555641649</v>
       </c>
       <c r="M25">
-        <v>1.038413798759491</v>
+        <v>1.05711467215876</v>
       </c>
       <c r="N25">
-        <v>1.022141766766536</v>
+        <v>1.038298227992074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032457870620217</v>
+        <v>1.002071652674926</v>
       </c>
       <c r="D2">
-        <v>1.041018084730279</v>
+        <v>1.023656644900543</v>
       </c>
       <c r="E2">
-        <v>1.050467848892552</v>
+        <v>1.023668370131769</v>
       </c>
       <c r="F2">
-        <v>1.055279202385765</v>
+        <v>1.031417832894041</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03580434566463</v>
+        <v>1.045635920366812</v>
       </c>
       <c r="J2">
-        <v>1.03758798229482</v>
+        <v>1.024190577032537</v>
       </c>
       <c r="K2">
-        <v>1.043798789197469</v>
+        <v>1.034795956775247</v>
       </c>
       <c r="L2">
-        <v>1.053222043623242</v>
+        <v>1.034807527987777</v>
       </c>
       <c r="M2">
-        <v>1.058020097333649</v>
+        <v>1.042456154659687</v>
       </c>
       <c r="N2">
-        <v>1.039061476242684</v>
+        <v>1.025645045128225</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033368681826004</v>
+        <v>1.006336896826062</v>
       </c>
       <c r="D3">
-        <v>1.041700024947126</v>
+        <v>1.026745599974363</v>
       </c>
       <c r="E3">
-        <v>1.051344080027163</v>
+        <v>1.027420411136198</v>
       </c>
       <c r="F3">
-        <v>1.056123803695223</v>
+        <v>1.035109557726478</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035944968108676</v>
+        <v>1.046565153783059</v>
       </c>
       <c r="J3">
-        <v>1.038141293066593</v>
+        <v>1.026656289775536</v>
       </c>
       <c r="K3">
-        <v>1.044291609357001</v>
+        <v>1.037047331185757</v>
       </c>
       <c r="L3">
-        <v>1.053910562723084</v>
+        <v>1.0377140638575</v>
       </c>
       <c r="M3">
-        <v>1.058678028897196</v>
+        <v>1.045312080723736</v>
       </c>
       <c r="N3">
-        <v>1.039615572779218</v>
+        <v>1.02811425946614</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033958616341583</v>
+        <v>1.009043775946869</v>
       </c>
       <c r="D4">
-        <v>1.042141658999556</v>
+        <v>1.02870875326193</v>
       </c>
       <c r="E4">
-        <v>1.051912287537551</v>
+        <v>1.029810672494994</v>
       </c>
       <c r="F4">
-        <v>1.056671193991466</v>
+        <v>1.037458666922723</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036034794726805</v>
+        <v>1.047145019348566</v>
       </c>
       <c r="J4">
-        <v>1.038499274299852</v>
+        <v>1.02821893645064</v>
       </c>
       <c r="K4">
-        <v>1.044610190651168</v>
+        <v>1.038472609085106</v>
       </c>
       <c r="L4">
-        <v>1.054356666700077</v>
+        <v>1.039562144606872</v>
       </c>
       <c r="M4">
-        <v>1.059103983300465</v>
+        <v>1.047125079533035</v>
       </c>
       <c r="N4">
-        <v>1.039974062386889</v>
+        <v>1.029679125278761</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034206762094523</v>
+        <v>1.010169478723157</v>
       </c>
       <c r="D5">
-        <v>1.042327409653594</v>
+        <v>1.029525779203496</v>
       </c>
       <c r="E5">
-        <v>1.052151454063709</v>
+        <v>1.030806834231381</v>
       </c>
       <c r="F5">
-        <v>1.056901525016691</v>
+        <v>1.038437022676881</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036072278196268</v>
+        <v>1.047383760324044</v>
       </c>
       <c r="J5">
-        <v>1.038649757016874</v>
+        <v>1.028868233735043</v>
       </c>
       <c r="K5">
-        <v>1.044744047688809</v>
+        <v>1.039064445467865</v>
       </c>
       <c r="L5">
-        <v>1.054544347661428</v>
+        <v>1.040331492508272</v>
       </c>
       <c r="M5">
-        <v>1.059283107818413</v>
+        <v>1.047879124310763</v>
       </c>
       <c r="N5">
-        <v>1.04012475880663</v>
+        <v>1.030329344639782</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034248434871711</v>
+        <v>1.010357781654424</v>
       </c>
       <c r="D6">
-        <v>1.042358603101004</v>
+        <v>1.029662482498307</v>
       </c>
       <c r="E6">
-        <v>1.052191628253281</v>
+        <v>1.030973591899759</v>
       </c>
       <c r="F6">
-        <v>1.056940210763981</v>
+        <v>1.038600761066891</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036078555419564</v>
+        <v>1.047423553330105</v>
       </c>
       <c r="J6">
-        <v>1.038675022955561</v>
+        <v>1.028976811874495</v>
       </c>
       <c r="K6">
-        <v>1.044766518468318</v>
+        <v>1.039163391832444</v>
       </c>
       <c r="L6">
-        <v>1.054575868220461</v>
+        <v>1.040460231091064</v>
       </c>
       <c r="M6">
-        <v>1.059313186695451</v>
+        <v>1.04800526101686</v>
       </c>
       <c r="N6">
-        <v>1.040150060625848</v>
+        <v>1.030438076972647</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033961931539439</v>
+        <v>1.009058865304752</v>
       </c>
       <c r="D7">
-        <v>1.042144140666342</v>
+        <v>1.028719702639851</v>
       </c>
       <c r="E7">
-        <v>1.051915482146863</v>
+        <v>1.02982401708505</v>
       </c>
       <c r="F7">
-        <v>1.056674270870237</v>
+        <v>1.037471775571626</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036035296682324</v>
+        <v>1.047148229081096</v>
       </c>
       <c r="J7">
-        <v>1.038501285108196</v>
+        <v>1.028227642124013</v>
       </c>
       <c r="K7">
-        <v>1.044611979549859</v>
+        <v>1.038480545863373</v>
       </c>
       <c r="L7">
-        <v>1.054359173958517</v>
+        <v>1.039572454178675</v>
       </c>
       <c r="M7">
-        <v>1.059106376563494</v>
+        <v>1.047135186798063</v>
       </c>
       <c r="N7">
-        <v>1.039976076050812</v>
+        <v>1.029687843315188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032765562928059</v>
+        <v>1.003524351287645</v>
       </c>
       <c r="D8">
-        <v>1.041248471380206</v>
+        <v>1.0247080927873</v>
       </c>
       <c r="E8">
-        <v>1.050763720120359</v>
+        <v>1.02494434422044</v>
       </c>
       <c r="F8">
-        <v>1.055564456755162</v>
+        <v>1.032673864335568</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035852110632947</v>
+        <v>1.045954448692464</v>
       </c>
       <c r="J8">
-        <v>1.037774985478631</v>
+        <v>1.025030811234838</v>
       </c>
       <c r="K8">
-        <v>1.043965402772963</v>
+        <v>1.035563463422171</v>
       </c>
       <c r="L8">
-        <v>1.053454609647551</v>
+        <v>1.035796705497491</v>
       </c>
       <c r="M8">
-        <v>1.058242400156061</v>
+        <v>1.043428714211682</v>
       </c>
       <c r="N8">
-        <v>1.039248744992465</v>
+        <v>1.026486472559469</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030661897570593</v>
+        <v>0.9933456982870142</v>
       </c>
       <c r="D9">
-        <v>1.039673117415286</v>
+        <v>1.017355050409117</v>
       </c>
       <c r="E9">
-        <v>1.048743645768536</v>
+        <v>1.01604451431402</v>
       </c>
       <c r="F9">
-        <v>1.053615615166834</v>
+        <v>1.023901699381387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035520414288817</v>
+        <v>1.043682547424145</v>
       </c>
       <c r="J9">
-        <v>1.036494836831787</v>
+        <v>1.019135645380486</v>
       </c>
       <c r="K9">
-        <v>1.042823759385441</v>
+        <v>1.030172692355566</v>
       </c>
       <c r="L9">
-        <v>1.051865204954897</v>
+        <v>1.028882535426748</v>
       </c>
       <c r="M9">
-        <v>1.056721779414803</v>
+        <v>1.036618535651072</v>
       </c>
       <c r="N9">
-        <v>1.037966778387707</v>
+        <v>1.020582934893419</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029262547370349</v>
+        <v>0.9862436890897298</v>
       </c>
       <c r="D10">
-        <v>1.038624948155136</v>
+        <v>1.012245259153645</v>
       </c>
       <c r="E10">
-        <v>1.047403405722586</v>
+        <v>1.009888812463697</v>
       </c>
       <c r="F10">
-        <v>1.052321058958289</v>
+        <v>1.017819836510878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035293336788262</v>
+        <v>1.042048367704216</v>
       </c>
       <c r="J10">
-        <v>1.035641259690165</v>
+        <v>1.015013930304898</v>
       </c>
       <c r="K10">
-        <v>1.042061194240933</v>
+        <v>1.026396886252774</v>
       </c>
       <c r="L10">
-        <v>1.050808749989494</v>
+        <v>1.024081787637719</v>
       </c>
       <c r="M10">
-        <v>1.0557093401832</v>
+        <v>1.031874633405181</v>
       </c>
       <c r="N10">
-        <v>1.037111989068638</v>
+        <v>1.016455366509656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028657362598425</v>
+        <v>0.9830862764429104</v>
       </c>
       <c r="D11">
-        <v>1.038171589881636</v>
+        <v>1.009979372192025</v>
       </c>
       <c r="E11">
-        <v>1.046824624965578</v>
+        <v>1.00716579473738</v>
       </c>
       <c r="F11">
-        <v>1.051761631834001</v>
+        <v>1.015126054351538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035193606950234</v>
+        <v>1.041310842543982</v>
       </c>
       <c r="J11">
-        <v>1.035271631200706</v>
+        <v>1.013180015959494</v>
       </c>
       <c r="K11">
-        <v>1.041730661616871</v>
+        <v>1.024715514494347</v>
       </c>
       <c r="L11">
-        <v>1.050352058300362</v>
+        <v>1.021953828184985</v>
       </c>
       <c r="M11">
-        <v>1.055271271303099</v>
+        <v>1.029768243945212</v>
       </c>
       <c r="N11">
-        <v>1.036741835664327</v>
+        <v>1.014618847795529</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028432682895183</v>
+        <v>0.9819004684234219</v>
       </c>
       <c r="D12">
-        <v>1.038003270082852</v>
+        <v>1.009129345395175</v>
       </c>
       <c r="E12">
-        <v>1.046609874967013</v>
+        <v>1.006145264322653</v>
       </c>
       <c r="F12">
-        <v>1.051554006368268</v>
+        <v>1.014115965709396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035156352543513</v>
+        <v>1.041032257053946</v>
       </c>
       <c r="J12">
-        <v>1.035134332246225</v>
+        <v>1.012491088992959</v>
       </c>
       <c r="K12">
-        <v>1.041607837668028</v>
+        <v>1.024083706982295</v>
       </c>
       <c r="L12">
-        <v>1.050182538365838</v>
+        <v>1.021155670247687</v>
       </c>
       <c r="M12">
-        <v>1.055108603153603</v>
+        <v>1.02897763251289</v>
       </c>
       <c r="N12">
-        <v>1.036604341729582</v>
+        <v>1.013928942473681</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028480872327043</v>
+        <v>0.9821554277453298</v>
       </c>
       <c r="D13">
-        <v>1.03803937171095</v>
+        <v>1.009312064158039</v>
       </c>
       <c r="E13">
-        <v>1.046655928910516</v>
+        <v>1.00636458970544</v>
       </c>
       <c r="F13">
-        <v>1.05159853498357</v>
+        <v>1.014333070305745</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035164353247321</v>
+        <v>1.04109222673882</v>
       </c>
       <c r="J13">
-        <v>1.035163783432026</v>
+        <v>1.012639221644561</v>
       </c>
       <c r="K13">
-        <v>1.041634186038903</v>
+        <v>1.024219565844679</v>
       </c>
       <c r="L13">
-        <v>1.050218895708295</v>
+        <v>1.021327233842106</v>
       </c>
       <c r="M13">
-        <v>1.055143493731548</v>
+        <v>1.029147598563656</v>
       </c>
       <c r="N13">
-        <v>1.036633834739444</v>
+        <v>1.014077285490638</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028638788194515</v>
+        <v>0.9829885264100021</v>
       </c>
       <c r="D14">
-        <v>1.038157674921056</v>
+        <v>1.009909281763306</v>
       </c>
       <c r="E14">
-        <v>1.046806868860663</v>
+        <v>1.007081625206732</v>
       </c>
       <c r="F14">
-        <v>1.051744465956246</v>
+        <v>1.015042756500073</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035190531776036</v>
+        <v>1.041287909999476</v>
       </c>
       <c r="J14">
-        <v>1.035260282070304</v>
+        <v>1.013123228764908</v>
       </c>
       <c r="K14">
-        <v>1.041720509952074</v>
+        <v>1.024663439199559</v>
       </c>
       <c r="L14">
-        <v>1.050338043361092</v>
+        <v>1.02188801215396</v>
       </c>
       <c r="M14">
-        <v>1.055257824071869</v>
+        <v>1.029703061257863</v>
       </c>
       <c r="N14">
-        <v>1.036730470416858</v>
+        <v>1.014561979956613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028736100365026</v>
+        <v>0.9835000824533666</v>
       </c>
       <c r="D15">
-        <v>1.038230575771649</v>
+        <v>1.010276126088773</v>
       </c>
       <c r="E15">
-        <v>1.046899899131023</v>
+        <v>1.00752219781903</v>
       </c>
       <c r="F15">
-        <v>1.051834401514105</v>
+        <v>1.015478745418987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035206633382115</v>
+        <v>1.041407858241176</v>
       </c>
       <c r="J15">
-        <v>1.035319737771752</v>
+        <v>1.013420406749107</v>
       </c>
       <c r="K15">
-        <v>1.041773690451853</v>
+        <v>1.024935951532513</v>
       </c>
       <c r="L15">
-        <v>1.050411469536752</v>
+        <v>1.022232489956625</v>
       </c>
       <c r="M15">
-        <v>1.055328273455375</v>
+        <v>1.030044201984986</v>
       </c>
       <c r="N15">
-        <v>1.036790010552222</v>
+        <v>1.014859579967636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0293027272512</v>
+        <v>0.9864514494294612</v>
       </c>
       <c r="D16">
-        <v>1.038655046850021</v>
+        <v>1.012394484641759</v>
       </c>
       <c r="E16">
-        <v>1.047441850345786</v>
+        <v>1.010068281128124</v>
       </c>
       <c r="F16">
-        <v>1.052358210131966</v>
+        <v>1.017997306709939</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035299926004098</v>
+        <v>1.042096672681788</v>
       </c>
       <c r="J16">
-        <v>1.035665790306819</v>
+        <v>1.015134576358896</v>
       </c>
       <c r="K16">
-        <v>1.042083123607078</v>
+        <v>1.026507470381632</v>
       </c>
       <c r="L16">
-        <v>1.050839075256496</v>
+        <v>1.024221947506327</v>
       </c>
       <c r="M16">
-        <v>1.055738420322872</v>
+        <v>1.032013296923755</v>
       </c>
       <c r="N16">
-        <v>1.037136554521582</v>
+        <v>1.016576183894889</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029658357138572</v>
+        <v>0.9882803084554169</v>
       </c>
       <c r="D17">
-        <v>1.038921442953308</v>
+        <v>1.013708750173609</v>
       </c>
       <c r="E17">
-        <v>1.047782218795926</v>
+        <v>1.011649664323145</v>
       </c>
       <c r="F17">
-        <v>1.052687083683927</v>
+        <v>1.019560688976941</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035358070590523</v>
+        <v>1.042520641711127</v>
       </c>
       <c r="J17">
-        <v>1.035882854298735</v>
+        <v>1.016196428184341</v>
       </c>
       <c r="K17">
-        <v>1.042277133502203</v>
+        <v>1.027480610257147</v>
       </c>
       <c r="L17">
-        <v>1.05110750561347</v>
+        <v>1.025456470078868</v>
       </c>
       <c r="M17">
-        <v>1.055995782389703</v>
+        <v>1.0332342259765</v>
       </c>
       <c r="N17">
-        <v>1.037353926769263</v>
+        <v>1.017639543671722</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029865861650989</v>
+        <v>0.9893391667597333</v>
       </c>
       <c r="D18">
-        <v>1.039076875998653</v>
+        <v>1.014470220883285</v>
       </c>
       <c r="E18">
-        <v>1.047980899583678</v>
+        <v>1.012566535417496</v>
       </c>
       <c r="F18">
-        <v>1.052879018418458</v>
+        <v>1.020466796807124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035391849859291</v>
+        <v>1.04276505937372</v>
       </c>
       <c r="J18">
-        <v>1.036009461666161</v>
+        <v>1.016811066882945</v>
       </c>
       <c r="K18">
-        <v>1.042390263606844</v>
+        <v>1.028043768152081</v>
       </c>
       <c r="L18">
-        <v>1.051264149756879</v>
+        <v>1.026171823229687</v>
       </c>
       <c r="M18">
-        <v>1.056145928491151</v>
+        <v>1.03394135710167</v>
       </c>
       <c r="N18">
-        <v>1.037480713933673</v>
+        <v>1.018255055227779</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029936627437437</v>
+        <v>0.9896988919805518</v>
       </c>
       <c r="D19">
-        <v>1.039129882861752</v>
+        <v>1.01472900533336</v>
       </c>
       <c r="E19">
-        <v>1.048048669923816</v>
+        <v>1.01287824070196</v>
       </c>
       <c r="F19">
-        <v>1.052944481528074</v>
+        <v>1.020774787562186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035403344718269</v>
+        <v>1.042847915759924</v>
       </c>
       <c r="J19">
-        <v>1.03605263106766</v>
+        <v>1.017019851921856</v>
       </c>
       <c r="K19">
-        <v>1.042428832485601</v>
+        <v>1.028235042971104</v>
       </c>
       <c r="L19">
-        <v>1.051317573742818</v>
+        <v>1.026414949256684</v>
       </c>
       <c r="M19">
-        <v>1.056197129672782</v>
+        <v>1.03418163013993</v>
       </c>
       <c r="N19">
-        <v>1.037523944640674</v>
+        <v>1.018464136765392</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029620194000876</v>
+        <v>0.98808490929217</v>
       </c>
       <c r="D20">
-        <v>1.038892856122911</v>
+        <v>1.013568273885603</v>
       </c>
       <c r="E20">
-        <v>1.047745684992795</v>
+        <v>1.011480571186003</v>
       </c>
       <c r="F20">
-        <v>1.052651787443704</v>
+        <v>1.019393554480928</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035351846236183</v>
+        <v>1.04247545234999</v>
       </c>
       <c r="J20">
-        <v>1.035859565625418</v>
+        <v>1.016082992289597</v>
       </c>
       <c r="K20">
-        <v>1.042256321438292</v>
+        <v>1.027376664768791</v>
       </c>
       <c r="L20">
-        <v>1.051078697988574</v>
+        <v>1.025324508449684</v>
       </c>
       <c r="M20">
-        <v>1.055968166641782</v>
+        <v>1.033103753182028</v>
       </c>
       <c r="N20">
-        <v>1.037330605023359</v>
+        <v>1.017525946684996</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028592282781956</v>
+        <v>0.9827435640835748</v>
       </c>
       <c r="D21">
-        <v>1.038122835417641</v>
+        <v>1.009733650318796</v>
       </c>
       <c r="E21">
-        <v>1.046762414307579</v>
+        <v>1.006870730393815</v>
       </c>
       <c r="F21">
-        <v>1.051701488196299</v>
+        <v>1.014834037458416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035182828652434</v>
+        <v>1.041230415309221</v>
       </c>
       <c r="J21">
-        <v>1.035231865685815</v>
+        <v>1.012980916945302</v>
       </c>
       <c r="K21">
-        <v>1.041695091065696</v>
+        <v>1.024532932756721</v>
       </c>
       <c r="L21">
-        <v>1.050302954141526</v>
+        <v>1.021723093444048</v>
       </c>
       <c r="M21">
-        <v>1.055224155240466</v>
+        <v>1.029539720786038</v>
       </c>
       <c r="N21">
-        <v>1.036702013677845</v>
+        <v>1.014419466037899</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027946647823908</v>
+        <v>0.9793096522675079</v>
       </c>
       <c r="D22">
-        <v>1.037639142906059</v>
+        <v>1.007274014475801</v>
       </c>
       <c r="E22">
-        <v>1.046145553196707</v>
+        <v>1.003919570576707</v>
       </c>
       <c r="F22">
-        <v>1.051104985701293</v>
+        <v>1.011912098230799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035075344129823</v>
+        <v>1.040420712991858</v>
       </c>
       <c r="J22">
-        <v>1.034837192053038</v>
+        <v>1.010985613808922</v>
       </c>
       <c r="K22">
-        <v>1.041341937946712</v>
+        <v>1.022702735978468</v>
       </c>
       <c r="L22">
-        <v>1.049815883287485</v>
+        <v>1.019413777858955</v>
       </c>
       <c r="M22">
-        <v>1.054756656547499</v>
+        <v>1.027251210929435</v>
       </c>
       <c r="N22">
-        <v>1.036306779563238</v>
+        <v>1.012421329342201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028288848764843</v>
+        <v>0.9811374298793387</v>
       </c>
       <c r="D23">
-        <v>1.037895514250088</v>
+        <v>1.008582654070629</v>
       </c>
       <c r="E23">
-        <v>1.046472433420977</v>
+        <v>1.005489189648347</v>
       </c>
       <c r="F23">
-        <v>1.051421108684046</v>
+        <v>1.013466458641054</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035132438815198</v>
+        <v>1.040852550779618</v>
       </c>
       <c r="J23">
-        <v>1.035046416942946</v>
+        <v>1.01204773760241</v>
       </c>
       <c r="K23">
-        <v>1.041529177740895</v>
+        <v>1.023677064824696</v>
       </c>
       <c r="L23">
-        <v>1.050074024755214</v>
+        <v>1.020642373063112</v>
       </c>
       <c r="M23">
-        <v>1.055004458396743</v>
+        <v>1.028469035328745</v>
       </c>
       <c r="N23">
-        <v>1.036516301576488</v>
+        <v>1.013484961473304</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029637438058918</v>
+        <v>0.9881732260802053</v>
       </c>
       <c r="D24">
-        <v>1.038905773130765</v>
+        <v>1.013631764863838</v>
       </c>
       <c r="E24">
-        <v>1.047762192583734</v>
+        <v>1.011556994132838</v>
       </c>
       <c r="F24">
-        <v>1.052667735960759</v>
+        <v>1.019469093216318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035354659172676</v>
+        <v>1.042495880355498</v>
       </c>
       <c r="J24">
-        <v>1.035870088781935</v>
+        <v>1.016134263653953</v>
       </c>
       <c r="K24">
-        <v>1.042265725614943</v>
+        <v>1.027423647016292</v>
       </c>
       <c r="L24">
-        <v>1.051091714688074</v>
+        <v>1.025384150800284</v>
       </c>
       <c r="M24">
-        <v>1.055980644913443</v>
+        <v>1.033162723697602</v>
       </c>
       <c r="N24">
-        <v>1.037341143123965</v>
+        <v>1.01757729086057</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031205205786848</v>
+        <v>0.9960305730348129</v>
       </c>
       <c r="D25">
-        <v>1.04008002699369</v>
+        <v>1.019291319850651</v>
       </c>
       <c r="E25">
-        <v>1.049264749557733</v>
+        <v>1.018383017070605</v>
       </c>
       <c r="F25">
-        <v>1.054118621696349</v>
+        <v>1.02620916481969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035607216563466</v>
+        <v>1.044290470559887</v>
       </c>
       <c r="J25">
-        <v>1.036825816407192</v>
+        <v>1.020692266672822</v>
       </c>
       <c r="K25">
-        <v>1.043119165842108</v>
+        <v>1.031597366202364</v>
       </c>
       <c r="L25">
-        <v>1.052275555641649</v>
+        <v>1.030702508761853</v>
       </c>
       <c r="M25">
-        <v>1.05711467215876</v>
+        <v>1.038413798759491</v>
       </c>
       <c r="N25">
-        <v>1.038298227992074</v>
+        <v>1.022141766766537</v>
       </c>
     </row>
   </sheetData>
